--- a/Supplementary data/OSD_Mamiello_Tables.xlsx
+++ b/Supplementary data/OSD_Mamiello_Tables.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4889E42B-9D1E-426E-A2A5-F4C9A60FC15A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F387467-48A9-427C-AB34-D6D9C1C89FB9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13695" windowHeight="9225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13695" windowHeight="9225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="5" r:id="rId1"/>
     <sheet name="Table 2" sheetId="6" r:id="rId2"/>
+    <sheet name="Table 3" sheetId="7" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Table 1'!$A$1:$Q$24</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="163">
   <si>
     <t>Species</t>
   </si>
@@ -319,9 +321,6 @@
     <t>Genus</t>
   </si>
   <si>
-    <t>B subarctic</t>
-  </si>
-  <si>
     <t>Polar</t>
   </si>
   <si>
@@ -334,21 +333,9 @@
     <t>Tropical</t>
   </si>
   <si>
-    <t>Mediterranean Sea</t>
-  </si>
-  <si>
-    <t>Remark</t>
-  </si>
-  <si>
     <t>Samples</t>
   </si>
   <si>
-    <t>Baltic Sea</t>
-  </si>
-  <si>
-    <t>Hawaii</t>
-  </si>
-  <si>
     <t>{Bathycoccus}</t>
   </si>
   <si>
@@ -382,15 +369,9 @@
     <t>{mediterraneus}</t>
   </si>
   <si>
-    <t>Below 45 °</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
-    <t>North Europe</t>
-  </si>
-  <si>
     <t>{Micromonas polaris}</t>
   </si>
   <si>
@@ -418,18 +399,9 @@
     <t>{sp.}</t>
   </si>
   <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>II</t>
-  </si>
-  <si>
     <t>B._.4</t>
   </si>
   <si>
-    <t>AB</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -445,24 +417,9 @@
     <t>Lagoon</t>
   </si>
   <si>
-    <t>South temperate</t>
-  </si>
-  <si>
-    <t>Black Sea</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
-    <t>Previous clade designation</t>
-  </si>
-  <si>
-    <t>Not found in\nLGC dataset</t>
-  </si>
-  <si>
-    <t>Clade version 1.0</t>
-  </si>
-  <si>
     <t>A1</t>
   </si>
   <si>
@@ -520,18 +477,9 @@
     <t>{Micromonas} clade B3</t>
   </si>
   <si>
-    <t>Update</t>
-  </si>
-  <si>
-    <t>B warm I and II</t>
-  </si>
-  <si>
     <t>BC</t>
   </si>
   <si>
-    <t>Rodriguez 2005</t>
-  </si>
-  <si>
     <t>Representative Sequence</t>
   </si>
   <si>
@@ -559,26 +507,26 @@
     <t>{Mantoniella} clade B</t>
   </si>
   <si>
-    <t>{Ostreococcus tauri}_3189</t>
-  </si>
-  <si>
-    <t>{Ostreococcus tauri}_8393</t>
-  </si>
-  <si>
     <t>{Micromonas} clade B4</t>
   </si>
   <si>
-    <t>{Ostreococcus tauri}_10972</t>
-  </si>
-  <si>
     <t>{Mantoniella} clade A</t>
+  </si>
+  <si>
+    <t>{Ostreococcus tauri}</t>
+  </si>
+  <si>
+    <t>This paper</t>
+  </si>
+  <si>
+    <t>Med Sea</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -600,16 +548,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -619,12 +559,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,7 +585,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -682,32 +616,37 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -993,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74463773-BE83-498D-8D5F-4C6B68984BC4}">
   <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1002,7 +941,7 @@
     <col min="1" max="1" width="20.85546875" customWidth="1"/>
     <col min="2" max="2" width="32.28515625" style="13" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="51.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31.140625" customWidth="1"/>
     <col min="15" max="15" width="19.7109375" customWidth="1"/>
@@ -1012,14 +951,14 @@
       <c r="A1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>94</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -1027,7 +966,7 @@
         <v>43</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="C2" s="3">
         <v>28810</v>
@@ -1052,7 +991,7 @@
         <v>44</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C3" s="3">
         <v>22885</v>
@@ -1077,7 +1016,7 @@
         <v>45</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="C4" s="3">
         <v>22720</v>
@@ -1102,7 +1041,7 @@
         <v>46</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C5" s="3">
         <v>16750</v>
@@ -1127,7 +1066,7 @@
         <v>47</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="C6" s="3">
         <v>10787</v>
@@ -1152,7 +1091,7 @@
         <v>48</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C7" s="3">
         <v>6207</v>
@@ -1177,7 +1116,7 @@
         <v>49</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="C8" s="3">
         <v>5465</v>
@@ -1202,7 +1141,7 @@
         <v>50</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="C9" s="3">
         <v>5459</v>
@@ -1227,7 +1166,7 @@
         <v>51</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="C10" s="3">
         <v>5251</v>
@@ -1252,7 +1191,7 @@
         <v>52</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C11" s="3">
         <v>4500</v>
@@ -1277,7 +1216,7 @@
         <v>53</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="C12" s="3">
         <v>4070</v>
@@ -1302,7 +1241,7 @@
         <v>54</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="C13" s="3">
         <v>3558</v>
@@ -1327,7 +1266,7 @@
         <v>55</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="C14" s="3">
         <v>3288</v>
@@ -1352,7 +1291,7 @@
         <v>56</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C15" s="3">
         <v>2200</v>
@@ -1377,7 +1316,7 @@
         <v>57</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="C16" s="3">
         <v>1616</v>
@@ -1402,7 +1341,7 @@
         <v>58</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C17" s="3">
         <v>1259</v>
@@ -1427,7 +1366,7 @@
         <v>59</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="C18" s="3">
         <v>1096</v>
@@ -1452,7 +1391,7 @@
         <v>60</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="C19" s="3">
         <v>1061</v>
@@ -1477,7 +1416,7 @@
         <v>61</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="C20" s="3">
         <v>1045</v>
@@ -1502,7 +1441,7 @@
         <v>62</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C21" s="3">
         <v>369</v>
@@ -1529,7 +1468,7 @@
         <v>63</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="C22" s="3">
         <v>277</v>
@@ -1556,7 +1495,7 @@
         <v>65</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C23" s="3">
         <v>248</v>
@@ -1582,7 +1521,7 @@
         <v>67</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C24" s="3">
         <v>234</v>
@@ -1615,7 +1554,7 @@
         <v>69</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C26" s="3">
         <v>67761</v>
@@ -1642,7 +1581,7 @@
         <v>70</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="C27" s="3">
         <v>37318</v>
@@ -1668,7 +1607,7 @@
         <v>71</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C28" s="3">
         <v>35194</v>
@@ -1694,7 +1633,7 @@
         <v>72</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C29" s="3">
         <v>25692</v>
@@ -1720,7 +1659,7 @@
         <v>73</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C30" s="3">
         <v>20779</v>
@@ -1746,7 +1685,7 @@
         <v>75</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="C31" s="3">
         <v>20153</v>
@@ -1772,7 +1711,7 @@
         <v>76</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="C32" s="3">
         <v>14869</v>
@@ -1798,7 +1737,7 @@
         <v>77</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="C33" s="3">
         <v>13511</v>
@@ -1824,7 +1763,7 @@
         <v>78</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C34" s="3">
         <v>7310</v>
@@ -1850,7 +1789,7 @@
         <v>79</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="C35" s="3">
         <v>5640</v>
@@ -1876,7 +1815,7 @@
         <v>80</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C36" s="3">
         <v>2806</v>
@@ -1902,7 +1841,7 @@
         <v>81</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="C37" s="3">
         <v>2610</v>
@@ -1928,7 +1867,7 @@
         <v>82</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="C38" s="3">
         <v>2357</v>
@@ -1954,7 +1893,7 @@
         <v>83</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="C39" s="3">
         <v>1862</v>
@@ -1980,7 +1919,7 @@
         <v>84</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="C40" s="3">
         <v>1078</v>
@@ -2006,7 +1945,7 @@
         <v>85</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="C41" s="3">
         <v>935</v>
@@ -2032,7 +1971,7 @@
         <v>86</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="C42" s="3">
         <v>908</v>
@@ -2058,7 +1997,7 @@
         <v>87</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="C43" s="3">
         <v>841</v>
@@ -2084,7 +2023,7 @@
         <v>88</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C44" s="3">
         <v>668</v>
@@ -2110,7 +2049,7 @@
         <v>89</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="C45" s="3">
         <v>661</v>
@@ -2136,7 +2075,7 @@
         <v>90</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="C46" s="3">
         <v>462</v>
@@ -2162,7 +2101,7 @@
         <v>91</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C47" s="3">
         <v>366</v>
@@ -2188,7 +2127,7 @@
         <v>92</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="C48" s="3">
         <v>205</v>
@@ -2229,782 +2168,744 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B4F89AB-E89D-4CF9-BB51-4D260A76AC72}">
-  <dimension ref="A1:S23"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="18" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" style="4" customWidth="1"/>
-    <col min="10" max="11" width="13.28515625" style="4" customWidth="1"/>
-    <col min="12" max="15" width="13.28515625" style="9" customWidth="1"/>
-    <col min="16" max="16" width="13.28515625" style="29" customWidth="1"/>
-    <col min="17" max="17" width="18" style="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="27.5703125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="11" style="4" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="4" customWidth="1"/>
+    <col min="5" max="6" width="13.28515625" style="4" customWidth="1"/>
+    <col min="7" max="10" width="13.28515625" style="9" customWidth="1"/>
+    <col min="11" max="11" width="18" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.5703125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>95</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
+      <c r="C1" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>99</v>
+      </c>
       <c r="I1" s="9" t="s">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="N1" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="O1" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="P1" s="28" t="s">
+      <c r="B2" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="Q1"/>
-      <c r="R1"/>
-      <c r="S1"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="10">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10">
         <v>72</v>
       </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="P2" s="28"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-    </row>
-    <row r="3" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="9"/>
+      <c r="F2" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+    </row>
+    <row r="3" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
       <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="28"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="9">
+        <v>103</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="9">
         <v>11</v>
       </c>
-      <c r="J4" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="P4" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-    </row>
-    <row r="5" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+    </row>
+    <row r="5" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="9" t="s">
-        <v>142</v>
-      </c>
+      <c r="D5" s="9">
+        <v>1</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
       <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="28"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="9">
+        <v>121</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="9">
         <v>16</v>
       </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="P6" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-    </row>
-    <row r="7" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+    </row>
+    <row r="7" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="C7" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>154</v>
-      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="28"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="I8" s="9">
+        <v>125</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="9">
         <v>16</v>
       </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="M8" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="N8" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="P8" s="28"/>
-      <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="H8" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="I9" s="9">
+        <v>125</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" s="9">
         <v>57</v>
       </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="P9" s="28"/>
-      <c r="Q9"/>
-      <c r="R9"/>
-      <c r="S9"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E9" s="9"/>
+      <c r="F9" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" t="s">
-        <v>134</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="I10" s="9">
+        <v>124</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" s="9">
         <v>38</v>
       </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="N10" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="P10" s="28"/>
-      <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>134</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="I11" s="9">
+        <v>124</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" s="9">
         <v>61</v>
       </c>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="N11" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="O11" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="P11" s="28"/>
-      <c r="Q11"/>
-      <c r="R11"/>
-      <c r="S11"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C12" t="s">
-        <v>149</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="9">
+        <v>121</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" s="9">
         <v>11</v>
       </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="P12" s="28"/>
-      <c r="Q12"/>
-      <c r="R12"/>
-      <c r="S12"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E12" s="9"/>
+      <c r="F12" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C13" t="s">
-        <v>148</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="I13" s="9">
+        <v>121</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="D13" s="9">
         <v>15</v>
       </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="M13" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="N13" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="P13" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q13"/>
-      <c r="R13"/>
-      <c r="S13"/>
-    </row>
-    <row r="14" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
-      <c r="B14" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="I14" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="18"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+    </row>
+    <row r="14" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
+      <c r="B14" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" s="19">
+        <v>14</v>
+      </c>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="I14" s="21"/>
+      <c r="J14" s="24" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" t="s">
-        <v>111</v>
-      </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="I15" s="9">
+        <v>106</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="9">
         <v>4</v>
       </c>
-      <c r="J15" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="K15" s="9"/>
-      <c r="P15" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q15"/>
-      <c r="R15"/>
-      <c r="S15"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E15" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="I16" s="9">
+        <v>107</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="9">
         <v>18</v>
       </c>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="P16" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q16"/>
-      <c r="R16"/>
-      <c r="S16"/>
-    </row>
-    <row r="17" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+    </row>
+    <row r="17" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="13" t="s">
-        <v>166</v>
-      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
       <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
       <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="12"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M17" s="12"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="E18" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="I18" s="11">
+        <v>109</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="11">
         <v>48</v>
       </c>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="L18" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="P18" s="28"/>
-      <c r="Q18"/>
-      <c r="R18"/>
-      <c r="S18"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E18" s="9"/>
+      <c r="F18" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="9">
+        <v>121</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" s="9">
         <v>25</v>
       </c>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="M19" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="N19" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="O19" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="P19" s="28"/>
-      <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="11">
+        <v>110</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="11">
         <v>35</v>
       </c>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="O20" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="P20" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q20"/>
-      <c r="R20"/>
-      <c r="S20"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="11">
+        <v>111</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="11">
         <v>2</v>
       </c>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="O21" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="P21" s="28"/>
-      <c r="Q21"/>
-      <c r="R21"/>
-      <c r="S21"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="J21" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="9">
+        <v>121</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D22" s="9">
         <v>20</v>
       </c>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="O22" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="P22" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q22"/>
-      <c r="R22"/>
-      <c r="S22"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D23" s="24"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D23" s="13"/>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B22">
     <sortCondition ref="A2:A22"/>
   </sortState>
-  <mergeCells count="1">
-    <mergeCell ref="E1:H1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE1C3F6-2913-4779-AA14-412B4466BFC6}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" s="23"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+      <c r="B8" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="25"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="25" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Supplementary data/OSD_Mamiello_Tables.xlsx
+++ b/Supplementary data/OSD_Mamiello_Tables.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F387467-48A9-427C-AB34-D6D9C1C89FB9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0917D8-34C6-49CD-A1FB-B7702500B4CE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13695" windowHeight="9225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="5" r:id="rId1"/>
@@ -15,7 +15,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Table 1'!$A$1:$Q$24</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -369,9 +369,6 @@
     <t>{mediterraneus}</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>{Micromonas polaris}</t>
   </si>
   <si>
@@ -520,6 +517,9 @@
   </si>
   <si>
     <t>Med Sea</t>
+  </si>
+  <si>
+    <t>+</t>
   </si>
 </sst>
 </file>
@@ -617,9 +617,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -647,6 +644,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -932,7 +932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74463773-BE83-498D-8D5F-4C6B68984BC4}">
   <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
@@ -951,14 +951,14 @@
       <c r="A1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>94</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -966,7 +966,7 @@
         <v>43</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C2" s="3">
         <v>28810</v>
@@ -991,7 +991,7 @@
         <v>44</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C3" s="3">
         <v>22885</v>
@@ -1016,7 +1016,7 @@
         <v>45</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C4" s="3">
         <v>22720</v>
@@ -1041,7 +1041,7 @@
         <v>46</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C5" s="3">
         <v>16750</v>
@@ -1066,7 +1066,7 @@
         <v>47</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C6" s="3">
         <v>10787</v>
@@ -1091,7 +1091,7 @@
         <v>48</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C7" s="3">
         <v>6207</v>
@@ -1116,7 +1116,7 @@
         <v>49</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C8" s="3">
         <v>5465</v>
@@ -1141,7 +1141,7 @@
         <v>50</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C9" s="3">
         <v>5459</v>
@@ -1166,7 +1166,7 @@
         <v>51</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C10" s="3">
         <v>5251</v>
@@ -1191,7 +1191,7 @@
         <v>52</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C11" s="3">
         <v>4500</v>
@@ -1216,7 +1216,7 @@
         <v>53</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C12" s="3">
         <v>4070</v>
@@ -1241,7 +1241,7 @@
         <v>54</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C13" s="3">
         <v>3558</v>
@@ -1266,7 +1266,7 @@
         <v>55</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C14" s="3">
         <v>3288</v>
@@ -1291,7 +1291,7 @@
         <v>56</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C15" s="3">
         <v>2200</v>
@@ -1316,7 +1316,7 @@
         <v>57</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C16" s="3">
         <v>1616</v>
@@ -1341,7 +1341,7 @@
         <v>58</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C17" s="3">
         <v>1259</v>
@@ -1366,7 +1366,7 @@
         <v>59</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C18" s="3">
         <v>1096</v>
@@ -1391,7 +1391,7 @@
         <v>60</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C19" s="3">
         <v>1061</v>
@@ -1416,7 +1416,7 @@
         <v>61</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C20" s="3">
         <v>1045</v>
@@ -1441,7 +1441,7 @@
         <v>62</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C21" s="3">
         <v>369</v>
@@ -1468,7 +1468,7 @@
         <v>63</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C22" s="3">
         <v>277</v>
@@ -1495,7 +1495,7 @@
         <v>65</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C23" s="3">
         <v>248</v>
@@ -1521,7 +1521,7 @@
         <v>67</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C24" s="3">
         <v>234</v>
@@ -1554,7 +1554,7 @@
         <v>69</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C26" s="3">
         <v>67761</v>
@@ -1581,7 +1581,7 @@
         <v>70</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C27" s="3">
         <v>37318</v>
@@ -1607,7 +1607,7 @@
         <v>71</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C28" s="3">
         <v>35194</v>
@@ -1633,7 +1633,7 @@
         <v>72</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C29" s="3">
         <v>25692</v>
@@ -1659,7 +1659,7 @@
         <v>73</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C30" s="3">
         <v>20779</v>
@@ -1685,7 +1685,7 @@
         <v>75</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C31" s="3">
         <v>20153</v>
@@ -1711,7 +1711,7 @@
         <v>76</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C32" s="3">
         <v>14869</v>
@@ -1737,7 +1737,7 @@
         <v>77</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C33" s="3">
         <v>13511</v>
@@ -1763,7 +1763,7 @@
         <v>78</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C34" s="3">
         <v>7310</v>
@@ -1789,7 +1789,7 @@
         <v>79</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C35" s="3">
         <v>5640</v>
@@ -1815,7 +1815,7 @@
         <v>80</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C36" s="3">
         <v>2806</v>
@@ -1841,7 +1841,7 @@
         <v>81</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C37" s="3">
         <v>2610</v>
@@ -1867,7 +1867,7 @@
         <v>82</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C38" s="3">
         <v>2357</v>
@@ -1893,7 +1893,7 @@
         <v>83</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C39" s="3">
         <v>1862</v>
@@ -1919,7 +1919,7 @@
         <v>84</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C40" s="3">
         <v>1078</v>
@@ -1945,7 +1945,7 @@
         <v>85</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C41" s="3">
         <v>935</v>
@@ -1971,7 +1971,7 @@
         <v>86</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C42" s="3">
         <v>908</v>
@@ -1997,7 +1997,7 @@
         <v>87</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C43" s="3">
         <v>841</v>
@@ -2023,7 +2023,7 @@
         <v>88</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C44" s="3">
         <v>668</v>
@@ -2049,7 +2049,7 @@
         <v>89</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C45" s="3">
         <v>661</v>
@@ -2075,7 +2075,7 @@
         <v>90</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C46" s="3">
         <v>462</v>
@@ -2101,7 +2101,7 @@
         <v>91</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C47" s="3">
         <v>366</v>
@@ -2127,7 +2127,7 @@
         <v>92</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C48" s="3">
         <v>205</v>
@@ -2170,11 +2170,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B4F89AB-E89D-4CF9-BB51-4D260A76AC72}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8:XFD16"/>
+      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2197,8 +2197,8 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>119</v>
+      <c r="C1" s="19" t="s">
+        <v>118</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>100</v>
@@ -2216,10 +2216,10 @@
         <v>99</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K1"/>
       <c r="L1"/>
@@ -2237,20 +2237,20 @@
         <v>72</v>
       </c>
       <c r="E2" s="9"/>
-      <c r="F2" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>112</v>
+      <c r="F2" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>162</v>
       </c>
       <c r="K2"/>
       <c r="L2"/>
@@ -2275,19 +2275,19 @@
       <c r="B4" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="20"/>
+      <c r="C4" s="19"/>
       <c r="D4" s="9">
         <v>11</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>112</v>
+      <c r="E4" s="26" t="s">
+        <v>162</v>
       </c>
       <c r="F4" s="9"/>
-      <c r="G4" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>112</v>
+      <c r="G4" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>162</v>
       </c>
       <c r="K4"/>
       <c r="L4"/>
@@ -2296,16 +2296,16 @@
     <row r="5" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>128</v>
+        <v>120</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>127</v>
       </c>
       <c r="D5" s="9">
         <v>1</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>112</v>
+      <c r="E5" s="26" t="s">
+        <v>162</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -2315,27 +2315,27 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C6" s="20" t="s">
         <v>120</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>119</v>
       </c>
       <c r="D6" s="9">
         <v>16</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
-      <c r="G6" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>112</v>
+      <c r="G6" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>162</v>
       </c>
       <c r="K6"/>
       <c r="L6"/>
@@ -2343,7 +2343,7 @@
     </row>
     <row r="7" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="C7" s="20"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -2357,21 +2357,21 @@
         <v>105</v>
       </c>
       <c r="B8" t="s">
-        <v>125</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>129</v>
+        <v>124</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>128</v>
       </c>
       <c r="D8" s="9">
         <v>16</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
-      <c r="H8" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>112</v>
+      <c r="H8" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>162</v>
       </c>
       <c r="K8"/>
       <c r="L8"/>
@@ -2380,20 +2380,20 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>130</v>
+        <v>124</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>129</v>
       </c>
       <c r="D9" s="9">
         <v>57</v>
       </c>
       <c r="E9" s="9"/>
-      <c r="F9" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>112</v>
+      <c r="F9" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>162</v>
       </c>
       <c r="K9"/>
       <c r="L9"/>
@@ -2402,21 +2402,21 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D10" s="9">
         <v>38</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>112</v>
+      <c r="G10" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>162</v>
       </c>
       <c r="K10"/>
       <c r="L10"/>
@@ -2424,24 +2424,24 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>124</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>132</v>
+        <v>123</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>131</v>
       </c>
       <c r="D11" s="9">
         <v>61</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
-      <c r="G11" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>112</v>
+      <c r="G11" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="J11" s="26" t="s">
+        <v>162</v>
       </c>
       <c r="K11"/>
       <c r="L11"/>
@@ -2450,17 +2450,17 @@
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>134</v>
+        <v>120</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>133</v>
       </c>
       <c r="D12" s="9">
         <v>11</v>
       </c>
       <c r="E12" s="9"/>
-      <c r="F12" s="9" t="s">
-        <v>112</v>
+      <c r="F12" s="26" t="s">
+        <v>162</v>
       </c>
       <c r="K12"/>
       <c r="L12"/>
@@ -2469,49 +2469,49 @@
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>133</v>
+        <v>120</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>132</v>
       </c>
       <c r="D13" s="9">
         <v>15</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
-      <c r="G13" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>112</v>
+      <c r="G13" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>162</v>
       </c>
       <c r="K13"/>
       <c r="L13"/>
       <c r="M13"/>
     </row>
     <row r="14" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="D14" s="19">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14" s="18">
         <v>14</v>
       </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="I14" s="21"/>
-      <c r="J14" s="24" t="s">
-        <v>112</v>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="I14" s="20"/>
+      <c r="J14" s="26" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -2519,12 +2519,12 @@
       <c r="B15" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="20"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="9">
         <v>4</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>112</v>
+      <c r="E15" s="26" t="s">
+        <v>162</v>
       </c>
       <c r="F15" s="9"/>
       <c r="K15"/>
@@ -2535,14 +2535,14 @@
       <c r="B16" t="s">
         <v>107</v>
       </c>
-      <c r="C16" s="20"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="9">
         <v>18</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
-      <c r="G16" s="9" t="s">
-        <v>112</v>
+      <c r="G16" s="26" t="s">
+        <v>162</v>
       </c>
       <c r="K16"/>
       <c r="L16"/>
@@ -2550,7 +2550,7 @@
     </row>
     <row r="17" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
-      <c r="C17" s="20"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
@@ -2574,11 +2574,11 @@
         <v>48</v>
       </c>
       <c r="E18" s="9"/>
-      <c r="F18" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>112</v>
+      <c r="F18" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>162</v>
       </c>
       <c r="K18"/>
       <c r="L18"/>
@@ -2587,27 +2587,27 @@
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C19" s="20" t="s">
         <v>120</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>119</v>
       </c>
       <c r="D19" s="9">
         <v>25</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
-      <c r="G19" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>112</v>
+      <c r="G19" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="I19" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="J19" s="26" t="s">
+        <v>162</v>
       </c>
       <c r="K19"/>
       <c r="L19"/>
@@ -2623,11 +2623,11 @@
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>112</v>
+      <c r="G20" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="J20" s="26" t="s">
+        <v>162</v>
       </c>
       <c r="K20"/>
       <c r="L20"/>
@@ -2644,8 +2644,8 @@
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
-      <c r="J21" s="9" t="s">
-        <v>112</v>
+      <c r="J21" s="26" t="s">
+        <v>162</v>
       </c>
       <c r="K21"/>
       <c r="L21"/>
@@ -2654,21 +2654,21 @@
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>126</v>
+        <v>120</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>125</v>
       </c>
       <c r="D22" s="9">
         <v>20</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
-      <c r="G22" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>112</v>
+      <c r="G22" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="J22" s="26" t="s">
+        <v>162</v>
       </c>
       <c r="K22"/>
       <c r="L22"/>
@@ -2714,20 +2714,20 @@
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="D1" s="22" t="s">
+      <c r="C1" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="F1" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" s="21" t="s">
         <v>138</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2735,136 +2735,136 @@
         <v>105</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="D2" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="E2" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>125</v>
+      <c r="D2" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>124</v>
+        <v>130</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="D6" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
+      <c r="C6" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6" s="22"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="D7" s="23" t="s">
+      <c r="G7" s="22" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="G7" s="23" t="s">
+      <c r="C8" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" s="24"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="24" t="s">
         <v>145</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="25" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2872,17 +2872,17 @@
       <c r="B9" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="G9" s="22" t="s">
+      <c r="C9" s="20"/>
+      <c r="D9" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="G9" s="21" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2891,17 +2891,17 @@
       <c r="B10" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="G10" s="22" t="s">
+      <c r="C10" s="20"/>
+      <c r="D10" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="G10" s="21" t="s">
         <v>107</v>
       </c>
     </row>
